--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>002224</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>中邮绝对收益策略定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002224</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮绝对收益策略定期开放混合</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43.93</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,1428 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2350,7 +2351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,17 +2362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2381,14 +2402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.109999999999999</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2397,14 +2440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2413,14 +2478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7977</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2429,13 +2516,2203 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5715</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2654</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2634</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9491</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9449</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8906</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7636</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7556</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方行业领先混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6828</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5617</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4611,7 +4612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,17 +4623,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4642,14 +4663,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.96</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4658,14 +4701,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.109999999999999</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4674,14 +4739,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4690,14 +4777,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4706,13 +4815,1041 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4573</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5732,7 +5733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5743,17 +5744,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5763,14 +5784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.46</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5779,14 +5822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.96</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5795,14 +5860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.109999999999999</v>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5811,14 +5898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -5827,14 +5936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5843,13 +5974,1963 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>12.57</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>22.46</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>34.96</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>8.109999999999999</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -600,6 +617,3174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015396</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011814</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2663,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3783,7 +6968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6043,7 +9228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7467,7 +10652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7599,7 +10784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7807,7 +10992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
+++ b/数据整理/stocks/A股/深证主板/002487-大金重工.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D2" t="n">
-        <v>18.74</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>12.57</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>22.46</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>34.96</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>8.109999999999999</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -616,7 +633,4291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2766</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0550</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8102</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015396</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时数字经济混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016097</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016635</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安气候变化责任投资混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016098</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时数字经济混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>42.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015575</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015574</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>宝盈新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>37.93</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>42.08</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014990</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>017485</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3784,7 +8085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5848,7 +10149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6968,7 +11269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9228,7 +13529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10652,7 +14953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10784,7 +15085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10990,136 +15291,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0578</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>